--- a/result/interactions_download/EXCEL/Burkitt_lymphoma_precog.xlsx
+++ b/result/interactions_download/EXCEL/Burkitt_lymphoma_precog.xlsx
@@ -36,30 +36,30 @@
     <t xml:space="preserve">CHD4</t>
   </si>
   <si>
+    <t xml:space="preserve">NON_ORF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ECT2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NONE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MTA2</t>
+  </si>
+  <si>
     <t xml:space="preserve">ORF</t>
   </si>
   <si>
-    <t xml:space="preserve">ECT2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NONE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MTA2</t>
-  </si>
-  <si>
     <t xml:space="preserve">FBXW7</t>
   </si>
   <si>
-    <t xml:space="preserve">NON_ORF</t>
+    <t xml:space="preserve">H2AFY</t>
   </si>
   <si>
     <t xml:space="preserve">KIF20A</t>
   </si>
   <si>
-    <t xml:space="preserve">H2AFY</t>
-  </si>
-  <si>
     <t xml:space="preserve">LCK</t>
   </si>
   <si>
@@ -84,84 +84,84 @@
     <t xml:space="preserve">MTOR</t>
   </si>
   <si>
+    <t xml:space="preserve">MYO5A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BCL11B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KDR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POF1B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CASP8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BCL6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NFATC1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FNBP1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TCF20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TAF1B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PIK3CA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RHOH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARID4A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAD23B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLEKHA1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USO1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTK2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD55</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATP1B3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ALDH1B1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GLG1</t>
+  </si>
+  <si>
     <t xml:space="preserve">BOTH</t>
   </si>
   <si>
-    <t xml:space="preserve">MYO5A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KDR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BCL11B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">POF1B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CASP8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BCL6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NFATC1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FNBP1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TCF20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TAF1B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PIK3CA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RHOH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARID4A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAD23B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLEKHA1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTK2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">USO1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD55</t>
+    <t xml:space="preserve">PPP1R9A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLCG2</t>
   </si>
   <si>
     <t xml:space="preserve">CD2</t>
   </si>
   <si>
-    <t xml:space="preserve">ATP1B3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALDH1B1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GLG1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PPP1R9A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLCG2</t>
-  </si>
-  <si>
     <t xml:space="preserve">FOXA1</t>
   </si>
   <si>
@@ -171,21 +171,21 @@
     <t xml:space="preserve">MDM4</t>
   </si>
   <si>
+    <t xml:space="preserve">MYL1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLCB4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CGNL1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCDH17</t>
+  </si>
+  <si>
     <t xml:space="preserve">CLTCL1</t>
   </si>
   <si>
-    <t xml:space="preserve">MYL1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLCB4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CGNL1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCDH17</t>
-  </si>
-  <si>
     <t xml:space="preserve">PCLO</t>
   </si>
   <si>
@@ -195,54 +195,54 @@
     <t xml:space="preserve">EXOSC8</t>
   </si>
   <si>
+    <t xml:space="preserve">FYB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTGDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PAG1</t>
+  </si>
+  <si>
     <t xml:space="preserve">SLC16A3</t>
   </si>
   <si>
-    <t xml:space="preserve">FYB</t>
+    <t xml:space="preserve">PLD2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DYRK1B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NR3C2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MEP1A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DENND2D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLRC3</t>
   </si>
   <si>
     <t xml:space="preserve">KLF9</t>
   </si>
   <si>
-    <t xml:space="preserve">PTGDS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PAG1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLD2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DYRK1B</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NR3C2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MEP1A</t>
+    <t xml:space="preserve">MYH4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PTPRC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DTX1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MESDC2</t>
   </si>
   <si>
     <t xml:space="preserve">IGHA1</t>
   </si>
   <si>
-    <t xml:space="preserve">DENND2D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NLRC3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MYH4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PTPRC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DTX1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MESDC2</t>
-  </si>
-  <si>
     <t xml:space="preserve">SNX8</t>
   </si>
   <si>
@@ -252,96 +252,96 @@
     <t xml:space="preserve">NEIL1</t>
   </si>
   <si>
+    <t xml:space="preserve">RTN1</t>
+  </si>
+  <si>
     <t xml:space="preserve">MAST3</t>
   </si>
   <si>
-    <t xml:space="preserve">RTN1</t>
-  </si>
-  <si>
     <t xml:space="preserve">TSGA10</t>
   </si>
   <si>
     <t xml:space="preserve">ATP11A</t>
   </si>
   <si>
+    <t xml:space="preserve">TRPC6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCDHB11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRPA1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LIMD1</t>
+  </si>
+  <si>
     <t xml:space="preserve">DNAJC1</t>
   </si>
   <si>
+    <t xml:space="preserve">GK2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD247</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HSPA12A</t>
+  </si>
+  <si>
     <t xml:space="preserve">ALDH2</t>
   </si>
   <si>
-    <t xml:space="preserve">TRPC6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PCDHB11</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TRPA1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LIMD1</t>
+    <t xml:space="preserve">NCF1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ATP6V1H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KIR3DL2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SCN10A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TESK2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CD226</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MUC2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ELL3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTN4IP1</t>
   </si>
   <si>
     <t xml:space="preserve">GCHFR</t>
   </si>
   <si>
-    <t xml:space="preserve">GK2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD247</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HSPA12A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NCF1</t>
+    <t xml:space="preserve">ZNF20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAD52</t>
   </si>
   <si>
     <t xml:space="preserve">TRIB2</t>
   </si>
   <si>
-    <t xml:space="preserve">ATP6V1H</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KIR3DL2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SCN10A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TESK2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD226</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MUC2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ELL3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RTN4IP1</t>
+    <t xml:space="preserve">CTSH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFN2</t>
   </si>
   <si>
     <t xml:space="preserve">NEK7</t>
   </si>
   <si>
-    <t xml:space="preserve">ZNF20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RAD52</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CTSH</t>
-  </si>
-  <si>
     <t xml:space="preserve">RFTN1</t>
   </si>
   <si>
-    <t xml:space="preserve">MFN2</t>
-  </si>
-  <si>
     <t xml:space="preserve">ABCC3</t>
   </si>
   <si>
@@ -354,33 +354,33 @@
     <t xml:space="preserve">CST6</t>
   </si>
   <si>
+    <t xml:space="preserve">DMD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MCC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSPAN14</t>
+  </si>
+  <si>
     <t xml:space="preserve">SOX15</t>
   </si>
   <si>
-    <t xml:space="preserve">DMD</t>
-  </si>
-  <si>
     <t xml:space="preserve">CDC25B</t>
   </si>
   <si>
     <t xml:space="preserve">FBXO5</t>
   </si>
   <si>
-    <t xml:space="preserve">MCC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TSPAN14</t>
-  </si>
-  <si>
     <t xml:space="preserve">TYMS</t>
   </si>
   <si>
+    <t xml:space="preserve">CCNE2</t>
+  </si>
+  <si>
     <t xml:space="preserve">TEX264</t>
   </si>
   <si>
-    <t xml:space="preserve">CCNE2</t>
-  </si>
-  <si>
     <t xml:space="preserve">DGKG</t>
   </si>
   <si>
@@ -393,61 +393,61 @@
     <t xml:space="preserve">VGLL4</t>
   </si>
   <si>
+    <t xml:space="preserve">CX3CL1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TNFRSF9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">P4HA2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARHGAP10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ITPKB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COL4A6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RTEL1</t>
+  </si>
+  <si>
     <t xml:space="preserve">GFRA1</t>
   </si>
   <si>
-    <t xml:space="preserve">CX3CL1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MAL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TNFRSF9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">P4HA2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ARHGAP10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ITPKB</t>
+    <t xml:space="preserve">KCNV2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NXPH4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CLSTN3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUOX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IRF8</t>
   </si>
   <si>
     <t xml:space="preserve">AGBL5</t>
   </si>
   <si>
-    <t xml:space="preserve">COL4A6</t>
+    <t xml:space="preserve">CD36</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EFHC1</t>
   </si>
   <si>
     <t xml:space="preserve">IRF9</t>
   </si>
   <si>
-    <t xml:space="preserve">RTEL1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KCNV2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NXPH4</t>
-  </si>
-  <si>
     <t xml:space="preserve">ST6GALNAC4</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CLSTN3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SUOX</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IRF8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CD36</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EFHC1</t>
   </si>
   <si>
     <t xml:space="preserve">SLA</t>
@@ -1049,13 +1049,13 @@
         <v>2.826</v>
       </c>
       <c r="D3" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E3" t="n">
         <v>33</v>
       </c>
       <c r="F3" t="n">
-        <v>16.5</v>
+        <v>16.0147058823529</v>
       </c>
     </row>
     <row r="4">
@@ -1063,7 +1063,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C4" t="n">
         <v>-2.162</v>
@@ -1080,22 +1080,22 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
         <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
       </c>
       <c r="C5" t="n">
         <v>2.033</v>
       </c>
       <c r="D5" t="n">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E5" t="n">
         <v>34</v>
       </c>
       <c r="F5" t="n">
-        <v>13.7619047619048</v>
+        <v>13.6</v>
       </c>
     </row>
     <row r="6">
@@ -1106,16 +1106,16 @@
         <v>7</v>
       </c>
       <c r="C6" t="n">
-        <v>2.021</v>
+        <v>2.389</v>
       </c>
       <c r="D6" t="n">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="E6" t="n">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F6" t="n">
-        <v>13.2987012987013</v>
+        <v>13.0909090909091</v>
       </c>
     </row>
     <row r="7">
@@ -1123,19 +1123,19 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
-        <v>2.389</v>
+        <v>2.021</v>
       </c>
       <c r="D7" t="n">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="E7" t="n">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="F7" t="n">
-        <v>13.2244897959184</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="8">
@@ -1143,7 +1143,7 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C8" t="n">
         <v>-2.758</v>
@@ -1183,19 +1183,19 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C10" t="n">
         <v>1.996</v>
       </c>
       <c r="D10" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E10" t="n">
         <v>34</v>
       </c>
       <c r="F10" t="n">
-        <v>11.9175257731959</v>
+        <v>11.56</v>
       </c>
     </row>
     <row r="11">
@@ -1203,7 +1203,7 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C11" t="n">
         <v>-2.989</v>
@@ -1223,19 +1223,19 @@
         <v>19</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C12" t="n">
         <v>-2.173</v>
       </c>
       <c r="D12" t="n">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E12" t="n">
         <v>31</v>
       </c>
       <c r="F12" t="n">
-        <v>10.445652173913</v>
+        <v>10.2234042553191</v>
       </c>
     </row>
     <row r="13">
@@ -1243,19 +1243,19 @@
         <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C13" t="n">
         <v>2.028</v>
       </c>
       <c r="D13" t="n">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E13" t="n">
         <v>25</v>
       </c>
       <c r="F13" t="n">
-        <v>8.68055555555556</v>
+        <v>8.44594594594595</v>
       </c>
     </row>
     <row r="14">
@@ -1269,13 +1269,13 @@
         <v>-2.582</v>
       </c>
       <c r="D14" t="n">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E14" t="n">
         <v>22</v>
       </c>
       <c r="F14" t="n">
-        <v>7.9344262295082</v>
+        <v>7.80645161290323</v>
       </c>
     </row>
     <row r="15">
@@ -1283,27 +1283,27 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C15" t="n">
         <v>2.167</v>
       </c>
       <c r="D15" t="n">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E15" t="n">
         <v>23</v>
       </c>
       <c r="F15" t="n">
-        <v>7.24657534246575</v>
+        <v>7.14864864864865</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C16" t="n">
         <v>-2.061</v>
@@ -1320,33 +1320,33 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
         <v>7</v>
       </c>
       <c r="C17" t="n">
-        <v>2.066</v>
+        <v>-3.031</v>
       </c>
       <c r="D17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E17" t="n">
         <v>10</v>
       </c>
       <c r="F17" t="n">
-        <v>6.66666666666667</v>
+        <v>6.25</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C18" t="n">
-        <v>-3.031</v>
+        <v>2.066</v>
       </c>
       <c r="D18" t="n">
         <v>16</v>
@@ -1360,30 +1360,30 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C19" t="n">
         <v>-2.196</v>
       </c>
       <c r="D19" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E19" t="n">
         <v>16</v>
       </c>
       <c r="F19" t="n">
-        <v>6.24390243902439</v>
+        <v>6.09523809523809</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C20" t="n">
         <v>2.132</v>
@@ -1400,10 +1400,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C21" t="n">
         <v>2.398</v>
@@ -1420,10 +1420,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C22" t="n">
         <v>-3.348</v>
@@ -1440,10 +1440,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C23" t="n">
         <v>-3.255</v>
@@ -1460,7 +1460,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B24" t="s">
         <v>7</v>
@@ -1480,10 +1480,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C25" t="n">
         <v>2.123</v>
@@ -1500,10 +1500,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C26" t="n">
         <v>-2.387</v>
@@ -1520,10 +1520,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C27" t="n">
         <v>2.107</v>
@@ -1540,10 +1540,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C28" t="n">
         <v>-2.334</v>
@@ -1560,10 +1560,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C29" t="n">
         <v>-2.169</v>
@@ -1580,10 +1580,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C30" t="n">
         <v>2.127</v>
@@ -1600,7 +1600,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B31" t="s">
         <v>7</v>
@@ -1620,47 +1620,47 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B32" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C32" t="n">
-        <v>-2.133</v>
+        <v>-2.751</v>
       </c>
       <c r="D32" t="n">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="E32" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F32" t="n">
-        <v>4.26086956521739</v>
+        <v>4.24528301886792</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C33" t="n">
-        <v>-2.751</v>
+        <v>-2.133</v>
       </c>
       <c r="D33" t="n">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="E33" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F33" t="n">
-        <v>4.24528301886792</v>
+        <v>4.17021276595745</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B34" t="s">
         <v>9</v>
@@ -1669,73 +1669,73 @@
         <v>2.782</v>
       </c>
       <c r="D34" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E34" t="n">
         <v>9</v>
       </c>
       <c r="F34" t="n">
-        <v>4.05</v>
+        <v>3.85714285714286</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B35" t="s">
         <v>9</v>
       </c>
       <c r="C35" t="n">
-        <v>-3.191</v>
+        <v>2.935</v>
       </c>
       <c r="D35" t="n">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="E35" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="F35" t="n">
-        <v>4</v>
+        <v>3.84313725490196</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C36" t="n">
-        <v>2.935</v>
+        <v>-2.582</v>
       </c>
       <c r="D36" t="n">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E36" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F36" t="n">
-        <v>3.84313725490196</v>
+        <v>3.59574468085106</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" t="s">
         <v>45</v>
       </c>
-      <c r="B37" t="s">
-        <v>12</v>
-      </c>
       <c r="C37" t="n">
-        <v>-2.582</v>
+        <v>2.066</v>
       </c>
       <c r="D37" t="n">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="E37" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="F37" t="n">
-        <v>3.67391304347826</v>
+        <v>3.36111111111111</v>
       </c>
     </row>
     <row r="38">
@@ -1746,16 +1746,16 @@
         <v>7</v>
       </c>
       <c r="C38" t="n">
-        <v>2.066</v>
+        <v>2.696</v>
       </c>
       <c r="D38" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E38" t="n">
         <v>11</v>
       </c>
       <c r="F38" t="n">
-        <v>3.45714285714286</v>
+        <v>3.27027027027027</v>
       </c>
     </row>
     <row r="39">
@@ -1766,16 +1766,16 @@
         <v>7</v>
       </c>
       <c r="C39" t="n">
-        <v>2.696</v>
+        <v>-3.051</v>
       </c>
       <c r="D39" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E39" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="F39" t="n">
-        <v>3.36111111111111</v>
+        <v>3.2</v>
       </c>
     </row>
     <row r="40">
@@ -1783,16 +1783,16 @@
         <v>48</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C40" t="n">
-        <v>-3.051</v>
+        <v>-3.191</v>
       </c>
       <c r="D40" t="n">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E40" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F40" t="n">
         <v>3.2</v>
@@ -1803,7 +1803,7 @@
         <v>49</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C41" t="n">
         <v>-1.97</v>
@@ -1823,7 +1823,7 @@
         <v>50</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C42" t="n">
         <v>2.612</v>
@@ -1843,7 +1843,7 @@
         <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C43" t="n">
         <v>-2.094</v>
@@ -1863,19 +1863,19 @@
         <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C44" t="n">
-        <v>-2.184</v>
+        <v>2.747</v>
       </c>
       <c r="D44" t="n">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="E44" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F44" t="n">
-        <v>2.89285714285714</v>
+        <v>2.76923076923077</v>
       </c>
     </row>
     <row r="45">
@@ -1883,19 +1883,19 @@
         <v>53</v>
       </c>
       <c r="B45" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C45" t="n">
-        <v>2.747</v>
+        <v>2.337</v>
       </c>
       <c r="D45" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E45" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F45" t="n">
-        <v>2.76923076923077</v>
+        <v>2.72222222222222</v>
       </c>
     </row>
     <row r="46">
@@ -1903,10 +1903,10 @@
         <v>54</v>
       </c>
       <c r="B46" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C46" t="n">
-        <v>2.337</v>
+        <v>-2.474</v>
       </c>
       <c r="D46" t="n">
         <v>18</v>
@@ -1923,10 +1923,10 @@
         <v>55</v>
       </c>
       <c r="B47" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C47" t="n">
-        <v>-2.474</v>
+        <v>1.995</v>
       </c>
       <c r="D47" t="n">
         <v>18</v>
@@ -1943,19 +1943,19 @@
         <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C48" t="n">
-        <v>1.995</v>
+        <v>-2.184</v>
       </c>
       <c r="D48" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="E48" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F48" t="n">
-        <v>2.72222222222222</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="49">
@@ -1963,7 +1963,7 @@
         <v>57</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C49" t="n">
         <v>2.155</v>
@@ -1989,13 +1989,13 @@
         <v>-2.931</v>
       </c>
       <c r="D50" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E50" t="n">
         <v>10</v>
       </c>
       <c r="F50" t="n">
-        <v>2.38095238095238</v>
+        <v>2.32558139534884</v>
       </c>
     </row>
     <row r="51">
@@ -2009,13 +2009,13 @@
         <v>2.174</v>
       </c>
       <c r="D51" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E51" t="n">
         <v>9</v>
       </c>
       <c r="F51" t="n">
-        <v>2.31428571428571</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="52">
@@ -2023,19 +2023,19 @@
         <v>60</v>
       </c>
       <c r="B52" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C52" t="n">
-        <v>-2.936</v>
+        <v>-2.162</v>
       </c>
       <c r="D52" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="E52" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F52" t="n">
-        <v>2.28571428571429</v>
+        <v>2.25</v>
       </c>
     </row>
     <row r="53">
@@ -2043,10 +2043,10 @@
         <v>61</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C53" t="n">
-        <v>-2.162</v>
+        <v>-3.316</v>
       </c>
       <c r="D53" t="n">
         <v>4</v>
@@ -2063,16 +2063,16 @@
         <v>62</v>
       </c>
       <c r="B54" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C54" t="n">
-        <v>2.2</v>
+        <v>-3.075</v>
       </c>
       <c r="D54" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="E54" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F54" t="n">
         <v>2.25</v>
@@ -2086,16 +2086,16 @@
         <v>9</v>
       </c>
       <c r="C55" t="n">
-        <v>-3.316</v>
+        <v>-2.936</v>
       </c>
       <c r="D55" t="n">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="E55" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="F55" t="n">
-        <v>2.25</v>
+        <v>2.13333333333333</v>
       </c>
     </row>
     <row r="56">
@@ -2103,19 +2103,19 @@
         <v>64</v>
       </c>
       <c r="B56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" t="n">
+        <v>-2.946</v>
+      </c>
+      <c r="D56" t="n">
         <v>12</v>
       </c>
-      <c r="C56" t="n">
-        <v>-3.075</v>
-      </c>
-      <c r="D56" t="n">
-        <v>16</v>
-      </c>
       <c r="E56" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F56" t="n">
-        <v>2.25</v>
+        <v>2.08333333333333</v>
       </c>
     </row>
     <row r="57">
@@ -2123,19 +2123,19 @@
         <v>65</v>
       </c>
       <c r="B57" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C57" t="n">
-        <v>-2.946</v>
+        <v>-2.317</v>
       </c>
       <c r="D57" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F57" t="n">
-        <v>2.08333333333333</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58">
@@ -2143,10 +2143,10 @@
         <v>66</v>
       </c>
       <c r="B58" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C58" t="n">
-        <v>-2.317</v>
+        <v>2.306</v>
       </c>
       <c r="D58" t="n">
         <v>8</v>
@@ -2163,16 +2163,16 @@
         <v>67</v>
       </c>
       <c r="B59" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C59" t="n">
-        <v>2.306</v>
+        <v>-2.08</v>
       </c>
       <c r="D59" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F59" t="n">
         <v>2</v>
@@ -2183,10 +2183,10 @@
         <v>68</v>
       </c>
       <c r="B60" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C60" t="n">
-        <v>-2.08</v>
+        <v>-2.848</v>
       </c>
       <c r="D60" t="n">
         <v>2</v>
@@ -2206,13 +2206,13 @@
         <v>9</v>
       </c>
       <c r="C61" t="n">
-        <v>-2.617</v>
+        <v>-3.099</v>
       </c>
       <c r="D61" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E61" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F61" t="n">
         <v>2</v>
@@ -2223,19 +2223,19 @@
         <v>70</v>
       </c>
       <c r="B62" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C62" t="n">
-        <v>-2.848</v>
+        <v>2.2</v>
       </c>
       <c r="D62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E62" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F62" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="63">
@@ -2243,19 +2243,19 @@
         <v>71</v>
       </c>
       <c r="B63" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="C63" t="n">
-        <v>-3.099</v>
+        <v>2.019</v>
       </c>
       <c r="D63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E63" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F63" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="64">
@@ -2263,10 +2263,10 @@
         <v>72</v>
       </c>
       <c r="B64" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="C64" t="n">
-        <v>2.019</v>
+        <v>-2.776</v>
       </c>
       <c r="D64" t="n">
         <v>5</v>
@@ -2283,10 +2283,10 @@
         <v>73</v>
       </c>
       <c r="B65" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C65" t="n">
-        <v>-2.776</v>
+        <v>-2.209</v>
       </c>
       <c r="D65" t="n">
         <v>5</v>
@@ -2303,19 +2303,19 @@
         <v>74</v>
       </c>
       <c r="B66" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C66" t="n">
-        <v>-2.209</v>
+        <v>2.763</v>
       </c>
       <c r="D66" t="n">
+        <v>14</v>
+      </c>
+      <c r="E66" t="n">
         <v>5</v>
       </c>
-      <c r="E66" t="n">
-        <v>3</v>
-      </c>
       <c r="F66" t="n">
-        <v>1.8</v>
+        <v>1.78571428571429</v>
       </c>
     </row>
     <row r="67">
@@ -2326,16 +2326,16 @@
         <v>9</v>
       </c>
       <c r="C67" t="n">
-        <v>2.763</v>
+        <v>-2.617</v>
       </c>
       <c r="D67" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F67" t="n">
-        <v>1.78571428571429</v>
+        <v>1.77777777777778</v>
       </c>
     </row>
     <row r="68">
@@ -2349,13 +2349,13 @@
         <v>-2.678</v>
       </c>
       <c r="D68" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="n">
         <v>4</v>
       </c>
       <c r="F68" t="n">
-        <v>1.77777777777778</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="69">
@@ -2369,13 +2369,13 @@
         <v>-2.839</v>
       </c>
       <c r="D69" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="n">
         <v>4</v>
       </c>
       <c r="F69" t="n">
-        <v>1.77777777777778</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="70">
@@ -2389,13 +2389,13 @@
         <v>-2.758</v>
       </c>
       <c r="D70" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="n">
         <v>4</v>
       </c>
       <c r="F70" t="n">
-        <v>1.77777777777778</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="71">
@@ -2403,19 +2403,19 @@
         <v>79</v>
       </c>
       <c r="B71" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C71" t="n">
-        <v>-2.596</v>
+        <v>-2.838</v>
       </c>
       <c r="D71" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E71" t="n">
         <v>5</v>
       </c>
       <c r="F71" t="n">
-        <v>1.66666666666667</v>
+        <v>1.5625</v>
       </c>
     </row>
     <row r="72">
@@ -2423,10 +2423,10 @@
         <v>80</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C72" t="n">
-        <v>-2.838</v>
+        <v>-2.596</v>
       </c>
       <c r="D72" t="n">
         <v>16</v>
@@ -2463,7 +2463,7 @@
         <v>82</v>
       </c>
       <c r="B74" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C74" t="n">
         <v>1.991</v>
@@ -2483,19 +2483,19 @@
         <v>83</v>
       </c>
       <c r="B75" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C75" t="n">
-        <v>3.074</v>
+        <v>2.076</v>
       </c>
       <c r="D75" t="n">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="E75" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F75" t="n">
-        <v>1.38461538461538</v>
+        <v>1.33333333333333</v>
       </c>
     </row>
     <row r="76">
@@ -2506,13 +2506,13 @@
         <v>7</v>
       </c>
       <c r="C76" t="n">
-        <v>-2.731</v>
+        <v>2.063</v>
       </c>
       <c r="D76" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="E76" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F76" t="n">
         <v>1.33333333333333</v>
@@ -2526,7 +2526,7 @@
         <v>7</v>
       </c>
       <c r="C77" t="n">
-        <v>2.076</v>
+        <v>2.088</v>
       </c>
       <c r="D77" t="n">
         <v>3</v>
@@ -2543,16 +2543,16 @@
         <v>86</v>
       </c>
       <c r="B78" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C78" t="n">
-        <v>2.063</v>
+        <v>2.703</v>
       </c>
       <c r="D78" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="E78" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F78" t="n">
         <v>1.33333333333333</v>
@@ -2563,16 +2563,16 @@
         <v>87</v>
       </c>
       <c r="B79" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C79" t="n">
-        <v>2.088</v>
+        <v>3.074</v>
       </c>
       <c r="D79" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="E79" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F79" t="n">
         <v>1.33333333333333</v>
@@ -2586,13 +2586,13 @@
         <v>9</v>
       </c>
       <c r="C80" t="n">
-        <v>2.703</v>
+        <v>-2.782</v>
       </c>
       <c r="D80" t="n">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="E80" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F80" t="n">
         <v>1.33333333333333</v>
@@ -2606,7 +2606,7 @@
         <v>9</v>
       </c>
       <c r="C81" t="n">
-        <v>-3.28</v>
+        <v>-2.773</v>
       </c>
       <c r="D81" t="n">
         <v>3</v>
@@ -2623,19 +2623,19 @@
         <v>90</v>
       </c>
       <c r="B82" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C82" t="n">
-        <v>-2.782</v>
+        <v>2.231</v>
       </c>
       <c r="D82" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="E82" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F82" t="n">
-        <v>1.33333333333333</v>
+        <v>1.31578947368421</v>
       </c>
     </row>
     <row r="83">
@@ -2643,19 +2643,19 @@
         <v>91</v>
       </c>
       <c r="B83" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C83" t="n">
-        <v>-2.773</v>
+        <v>-2.731</v>
       </c>
       <c r="D83" t="n">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="E83" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F83" t="n">
-        <v>1.33333333333333</v>
+        <v>1.28571428571429</v>
       </c>
     </row>
     <row r="84">
@@ -2663,19 +2663,19 @@
         <v>92</v>
       </c>
       <c r="B84" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C84" t="n">
-        <v>2.231</v>
+        <v>-3.335</v>
       </c>
       <c r="D84" t="n">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="E84" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F84" t="n">
-        <v>1.31578947368421</v>
+        <v>1.28571428571429</v>
       </c>
     </row>
     <row r="85">
@@ -2686,16 +2686,16 @@
         <v>9</v>
       </c>
       <c r="C85" t="n">
-        <v>-3.335</v>
+        <v>-2.854</v>
       </c>
       <c r="D85" t="n">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="E85" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F85" t="n">
-        <v>1.28571428571429</v>
+        <v>1.08695652173913</v>
       </c>
     </row>
     <row r="86">
@@ -2706,16 +2706,16 @@
         <v>7</v>
       </c>
       <c r="C86" t="n">
-        <v>-2.663</v>
+        <v>2.541</v>
       </c>
       <c r="D86" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E86" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>1.125</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87">
@@ -2723,19 +2723,19 @@
         <v>95</v>
       </c>
       <c r="B87" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C87" t="n">
-        <v>-2.854</v>
+        <v>-2.096</v>
       </c>
       <c r="D87" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="E87" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>1.08695652173913</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -2743,16 +2743,16 @@
         <v>96</v>
       </c>
       <c r="B88" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C88" t="n">
-        <v>2.541</v>
+        <v>2.305</v>
       </c>
       <c r="D88" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E88" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F88" t="n">
         <v>1</v>
@@ -2763,10 +2763,10 @@
         <v>97</v>
       </c>
       <c r="B89" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C89" t="n">
-        <v>-2.096</v>
+        <v>-1.97</v>
       </c>
       <c r="D89" t="n">
         <v>1</v>
@@ -2783,16 +2783,16 @@
         <v>98</v>
       </c>
       <c r="B90" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C90" t="n">
-        <v>2.305</v>
+        <v>2.162</v>
       </c>
       <c r="D90" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E90" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F90" t="n">
         <v>1</v>
@@ -2803,10 +2803,10 @@
         <v>99</v>
       </c>
       <c r="B91" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C91" t="n">
-        <v>-1.97</v>
+        <v>-3.96</v>
       </c>
       <c r="D91" t="n">
         <v>1</v>
@@ -2823,16 +2823,16 @@
         <v>100</v>
       </c>
       <c r="B92" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C92" t="n">
-        <v>2.162</v>
+        <v>-3.216</v>
       </c>
       <c r="D92" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E92" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F92" t="n">
         <v>1</v>
@@ -2843,16 +2843,16 @@
         <v>101</v>
       </c>
       <c r="B93" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C93" t="n">
-        <v>-3.96</v>
+        <v>-3.28</v>
       </c>
       <c r="D93" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E93" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F93" t="n">
         <v>1</v>
@@ -2866,13 +2866,13 @@
         <v>9</v>
       </c>
       <c r="C94" t="n">
-        <v>-3.216</v>
+        <v>-3.181</v>
       </c>
       <c r="D94" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F94" t="n">
         <v>1</v>
@@ -2886,7 +2886,7 @@
         <v>9</v>
       </c>
       <c r="C95" t="n">
-        <v>3.094</v>
+        <v>-2.773</v>
       </c>
       <c r="D95" t="n">
         <v>16</v>
@@ -2903,16 +2903,16 @@
         <v>104</v>
       </c>
       <c r="B96" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C96" t="n">
-        <v>-3.181</v>
+        <v>-2.663</v>
       </c>
       <c r="D96" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E96" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F96" t="n">
         <v>1</v>
@@ -2926,13 +2926,13 @@
         <v>9</v>
       </c>
       <c r="C97" t="n">
-        <v>-2.773</v>
+        <v>-2.799</v>
       </c>
       <c r="D97" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E97" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F97" t="n">
         <v>1</v>
@@ -2943,19 +2943,19 @@
         <v>106</v>
       </c>
       <c r="B98" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C98" t="n">
-        <v>-2.799</v>
+        <v>2.003</v>
       </c>
       <c r="D98" t="n">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="E98" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F98" t="n">
-        <v>1</v>
+        <v>0.961538461538462</v>
       </c>
     </row>
     <row r="99">
@@ -2966,16 +2966,16 @@
         <v>9</v>
       </c>
       <c r="C99" t="n">
-        <v>-2.614</v>
+        <v>3.094</v>
       </c>
       <c r="D99" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E99" t="n">
         <v>4</v>
       </c>
       <c r="F99" t="n">
-        <v>1</v>
+        <v>0.941176470588235</v>
       </c>
     </row>
     <row r="100">
@@ -2983,19 +2983,19 @@
         <v>108</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C100" t="n">
-        <v>2.003</v>
+        <v>-2.614</v>
       </c>
       <c r="D100" t="n">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E100" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F100" t="n">
-        <v>0.961538461538462</v>
+        <v>0.941176470588235</v>
       </c>
     </row>
     <row r="101">
@@ -3003,19 +3003,19 @@
         <v>109</v>
       </c>
       <c r="B101" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C101" t="n">
         <v>-2.328</v>
       </c>
       <c r="D101" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E101" t="n">
         <v>4</v>
       </c>
       <c r="F101" t="n">
-        <v>0.941176470588235</v>
+        <v>0.888888888888889</v>
       </c>
     </row>
     <row r="102">
@@ -3023,7 +3023,7 @@
         <v>110</v>
       </c>
       <c r="B102" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C102" t="n">
         <v>-2.293</v>
@@ -3043,7 +3043,7 @@
         <v>111</v>
       </c>
       <c r="B103" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C103" t="n">
         <v>-2.039</v>
@@ -3083,19 +3083,19 @@
         <v>113</v>
       </c>
       <c r="B105" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C105" t="n">
-        <v>-2.728</v>
+        <v>2.213</v>
       </c>
       <c r="D105" t="n">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="E105" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F105" t="n">
-        <v>0.8</v>
+        <v>0.727272727272727</v>
       </c>
     </row>
     <row r="106">
@@ -3103,19 +3103,19 @@
         <v>114</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C106" t="n">
-        <v>2.213</v>
+        <v>2.708</v>
       </c>
       <c r="D106" t="n">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E106" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F106" t="n">
-        <v>0.761904761904762</v>
+        <v>0.692307692307692</v>
       </c>
     </row>
     <row r="107">
@@ -3123,19 +3123,19 @@
         <v>115</v>
       </c>
       <c r="B107" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C107" t="n">
-        <v>2.694</v>
+        <v>-2.069</v>
       </c>
       <c r="D107" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E107" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F107" t="n">
-        <v>0.75</v>
+        <v>0.666666666666667</v>
       </c>
     </row>
     <row r="108">
@@ -3143,19 +3143,19 @@
         <v>116</v>
       </c>
       <c r="B108" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C108" t="n">
-        <v>2.818</v>
+        <v>-2.728</v>
       </c>
       <c r="D108" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E108" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F108" t="n">
-        <v>0.692307692307692</v>
+        <v>0.666666666666667</v>
       </c>
     </row>
     <row r="109">
@@ -3166,16 +3166,16 @@
         <v>9</v>
       </c>
       <c r="C109" t="n">
-        <v>2.708</v>
+        <v>2.694</v>
       </c>
       <c r="D109" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E109" t="n">
         <v>3</v>
       </c>
       <c r="F109" t="n">
-        <v>0.692307692307692</v>
+        <v>0.642857142857143</v>
       </c>
     </row>
     <row r="110">
@@ -3183,19 +3183,19 @@
         <v>118</v>
       </c>
       <c r="B110" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C110" t="n">
-        <v>-2.069</v>
+        <v>2.818</v>
       </c>
       <c r="D110" t="n">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E110" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F110" t="n">
-        <v>0.666666666666667</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="111">
@@ -3226,16 +3226,16 @@
         <v>9</v>
       </c>
       <c r="C112" t="n">
-        <v>2.595</v>
+        <v>3.51</v>
       </c>
       <c r="D112" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E112" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F112" t="n">
-        <v>0.6</v>
+        <v>0.571428571428571</v>
       </c>
     </row>
     <row r="113">
@@ -3246,16 +3246,16 @@
         <v>9</v>
       </c>
       <c r="C113" t="n">
-        <v>3.51</v>
+        <v>2.595</v>
       </c>
       <c r="D113" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="E113" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F113" t="n">
-        <v>0.571428571428571</v>
+        <v>0.5625</v>
       </c>
     </row>
     <row r="114">
@@ -3263,7 +3263,7 @@
         <v>122</v>
       </c>
       <c r="B114" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C114" t="n">
         <v>-2.239</v>
@@ -3303,7 +3303,7 @@
         <v>124</v>
       </c>
       <c r="B116" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C116" t="n">
         <v>-2.017</v>
@@ -3323,7 +3323,7 @@
         <v>125</v>
       </c>
       <c r="B117" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C117" t="n">
         <v>-2.194</v>
@@ -3343,10 +3343,10 @@
         <v>126</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C118" t="n">
-        <v>2.377</v>
+        <v>-3.065</v>
       </c>
       <c r="D118" t="n">
         <v>2</v>
@@ -3366,7 +3366,7 @@
         <v>9</v>
       </c>
       <c r="C119" t="n">
-        <v>-3.065</v>
+        <v>-2.787</v>
       </c>
       <c r="D119" t="n">
         <v>2</v>
@@ -3386,7 +3386,7 @@
         <v>9</v>
       </c>
       <c r="C120" t="n">
-        <v>-2.787</v>
+        <v>-2.612</v>
       </c>
       <c r="D120" t="n">
         <v>2</v>
@@ -3406,16 +3406,16 @@
         <v>9</v>
       </c>
       <c r="C121" t="n">
-        <v>-2.612</v>
+        <v>2.613</v>
       </c>
       <c r="D121" t="n">
+        <v>10</v>
+      </c>
+      <c r="E121" t="n">
         <v>2</v>
       </c>
-      <c r="E121" t="n">
-        <v>1</v>
-      </c>
       <c r="F121" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="122">
@@ -3423,19 +3423,19 @@
         <v>130</v>
       </c>
       <c r="B122" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C122" t="n">
-        <v>2.613</v>
+        <v>2.392</v>
       </c>
       <c r="D122" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="n">
         <v>2</v>
       </c>
       <c r="F122" t="n">
-        <v>0.4</v>
+        <v>0.363636363636364</v>
       </c>
     </row>
     <row r="123">
@@ -3443,10 +3443,10 @@
         <v>131</v>
       </c>
       <c r="B123" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="C123" t="n">
-        <v>2.392</v>
+        <v>-2.78</v>
       </c>
       <c r="D123" t="n">
         <v>11</v>
@@ -3463,19 +3463,19 @@
         <v>132</v>
       </c>
       <c r="B124" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C124" t="n">
-        <v>-2.78</v>
+        <v>2.045</v>
       </c>
       <c r="D124" t="n">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.363636363636364</v>
+        <v>0.333333333333333</v>
       </c>
     </row>
     <row r="125">
@@ -3483,16 +3483,16 @@
         <v>133</v>
       </c>
       <c r="B125" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C125" t="n">
-        <v>2.232</v>
+        <v>-2.094</v>
       </c>
       <c r="D125" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="E125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F125" t="n">
         <v>0.333333333333333</v>
@@ -3503,10 +3503,10 @@
         <v>134</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C126" t="n">
-        <v>2.045</v>
+        <v>2.377</v>
       </c>
       <c r="D126" t="n">
         <v>3</v>
@@ -3526,7 +3526,7 @@
         <v>7</v>
       </c>
       <c r="C127" t="n">
-        <v>-2.546</v>
+        <v>2.043</v>
       </c>
       <c r="D127" t="n">
         <v>3</v>
@@ -3543,16 +3543,16 @@
         <v>136</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C128" t="n">
-        <v>-2.094</v>
+        <v>2.891</v>
       </c>
       <c r="D128" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F128" t="n">
         <v>0.333333333333333</v>
@@ -3563,10 +3563,10 @@
         <v>137</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C129" t="n">
-        <v>2.043</v>
+        <v>-2.722</v>
       </c>
       <c r="D129" t="n">
         <v>3</v>
@@ -3586,7 +3586,7 @@
         <v>9</v>
       </c>
       <c r="C130" t="n">
-        <v>2.891</v>
+        <v>-2.676</v>
       </c>
       <c r="D130" t="n">
         <v>3</v>
@@ -3603,10 +3603,10 @@
         <v>139</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C131" t="n">
-        <v>2.743</v>
+        <v>-2.745</v>
       </c>
       <c r="D131" t="n">
         <v>3</v>
@@ -3623,19 +3623,19 @@
         <v>140</v>
       </c>
       <c r="B132" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C132" t="n">
-        <v>-2.722</v>
+        <v>2.232</v>
       </c>
       <c r="D132" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E132" t="n">
         <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>0.333333333333333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="133">
@@ -3643,19 +3643,19 @@
         <v>141</v>
       </c>
       <c r="B133" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C133" t="n">
-        <v>-2.676</v>
+        <v>2.112</v>
       </c>
       <c r="D133" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E133" t="n">
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.333333333333333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="134">
@@ -3663,19 +3663,19 @@
         <v>142</v>
       </c>
       <c r="B134" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C134" t="n">
-        <v>-2.745</v>
+        <v>-2.096</v>
       </c>
       <c r="D134" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E134" t="n">
         <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>0.333333333333333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="135">
@@ -3686,7 +3686,7 @@
         <v>7</v>
       </c>
       <c r="C135" t="n">
-        <v>2.112</v>
+        <v>-2.546</v>
       </c>
       <c r="D135" t="n">
         <v>4</v>
@@ -3703,10 +3703,10 @@
         <v>144</v>
       </c>
       <c r="B136" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C136" t="n">
-        <v>-2.096</v>
+        <v>2.743</v>
       </c>
       <c r="D136" t="n">
         <v>4</v>
@@ -3763,7 +3763,7 @@
         <v>147</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="C139" t="n">
         <v>2.157</v>
@@ -3783,7 +3783,7 @@
         <v>148</v>
       </c>
       <c r="B140" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C140" t="n">
         <v>-2.329</v>
@@ -3803,7 +3803,7 @@
         <v>149</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C141" t="n">
         <v>-1.96</v>
@@ -3909,13 +3909,13 @@
         <v>2.741</v>
       </c>
       <c r="D146" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E146" t="n">
         <v>2</v>
       </c>
       <c r="F146" t="n">
-        <v>0.19047619047619</v>
+        <v>0.173913043478261</v>
       </c>
     </row>
     <row r="147">
@@ -3923,7 +3923,7 @@
         <v>155</v>
       </c>
       <c r="B147" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="C147" t="n">
         <v>-2.723</v>
@@ -3963,7 +3963,7 @@
         <v>157</v>
       </c>
       <c r="B149" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C149" t="n">
         <v>-2.642</v>
@@ -3989,13 +3989,13 @@
         <v>2.693</v>
       </c>
       <c r="D150" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E150" t="n">
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.125</v>
+        <v>0.111111111111111</v>
       </c>
     </row>
     <row r="151">
@@ -4003,19 +4003,19 @@
         <v>159</v>
       </c>
       <c r="B151" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C151" t="n">
         <v>2.513</v>
       </c>
       <c r="D151" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E151" t="n">
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.0769230769230769</v>
+        <v>0.0714285714285714</v>
       </c>
     </row>
     <row r="152">
@@ -4043,7 +4043,7 @@
         <v>161</v>
       </c>
       <c r="B153" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C153" t="n">
         <v>-1.996</v>
@@ -4063,7 +4063,7 @@
         <v>162</v>
       </c>
       <c r="B154" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C154" t="n">
         <v>2.096</v>
@@ -4083,7 +4083,7 @@
         <v>163</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C155" t="n">
         <v>2.065</v>
@@ -4103,13 +4103,13 @@
         <v>164</v>
       </c>
       <c r="B156" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C156" t="n">
         <v>-2.025</v>
       </c>
       <c r="D156" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E156" t="n">
         <v>0</v>
@@ -4123,7 +4123,7 @@
         <v>165</v>
       </c>
       <c r="B157" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C157" t="n">
         <v>-2.528</v>
@@ -4143,7 +4143,7 @@
         <v>166</v>
       </c>
       <c r="B158" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C158" t="n">
         <v>-1.983</v>
@@ -4183,7 +4183,7 @@
         <v>168</v>
       </c>
       <c r="B160" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C160" t="n">
         <v>2.287</v>
@@ -4203,7 +4203,7 @@
         <v>169</v>
       </c>
       <c r="B161" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C161" t="n">
         <v>-2.051</v>
@@ -4223,7 +4223,7 @@
         <v>170</v>
       </c>
       <c r="B162" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C162" t="n">
         <v>2.138</v>
@@ -4243,7 +4243,7 @@
         <v>171</v>
       </c>
       <c r="B163" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C163" t="n">
         <v>2.126</v>
@@ -4263,7 +4263,7 @@
         <v>172</v>
       </c>
       <c r="B164" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C164" t="n">
         <v>-1.976</v>
@@ -4283,7 +4283,7 @@
         <v>173</v>
       </c>
       <c r="B165" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C165" t="n">
         <v>2.351</v>
@@ -4303,7 +4303,7 @@
         <v>174</v>
       </c>
       <c r="B166" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C166" t="n">
         <v>2.064</v>
@@ -4323,7 +4323,7 @@
         <v>175</v>
       </c>
       <c r="B167" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C167" t="n">
         <v>2.294</v>
@@ -4343,7 +4343,7 @@
         <v>176</v>
       </c>
       <c r="B168" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C168" t="n">
         <v>2.097</v>
@@ -4363,7 +4363,7 @@
         <v>177</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C169" t="n">
         <v>2.064</v>
@@ -4403,13 +4403,13 @@
         <v>179</v>
       </c>
       <c r="B171" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C171" t="n">
         <v>-2.925</v>
       </c>
       <c r="D171" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E171" t="n">
         <v>0</v>
@@ -4423,7 +4423,7 @@
         <v>180</v>
       </c>
       <c r="B172" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C172" t="n">
         <v>-2.218</v>
@@ -4443,7 +4443,7 @@
         <v>181</v>
       </c>
       <c r="B173" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C173" t="n">
         <v>2.478</v>
@@ -4463,7 +4463,7 @@
         <v>182</v>
       </c>
       <c r="B174" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C174" t="n">
         <v>2.023</v>
@@ -4483,7 +4483,7 @@
         <v>183</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C175" t="n">
         <v>-2.242</v>
@@ -4503,13 +4503,13 @@
         <v>184</v>
       </c>
       <c r="B176" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C176" t="n">
         <v>2.008</v>
       </c>
       <c r="D176" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E176" t="n">
         <v>0</v>
@@ -4523,7 +4523,7 @@
         <v>185</v>
       </c>
       <c r="B177" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C177" t="n">
         <v>2.336</v>
@@ -4543,7 +4543,7 @@
         <v>186</v>
       </c>
       <c r="B178" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C178" t="n">
         <v>-4.454</v>
@@ -4563,7 +4563,7 @@
         <v>187</v>
       </c>
       <c r="B179" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C179" t="n">
         <v>-2.028</v>
@@ -4823,7 +4823,7 @@
         <v>200</v>
       </c>
       <c r="B192" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C192" t="n">
         <v>-3.017</v>
@@ -4889,7 +4889,7 @@
         <v>-3.393</v>
       </c>
       <c r="D195" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E195" t="n">
         <v>0</v>
@@ -4963,7 +4963,7 @@
         <v>207</v>
       </c>
       <c r="B199" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C199" t="n">
         <v>-3.391</v>
@@ -5003,7 +5003,7 @@
         <v>209</v>
       </c>
       <c r="B201" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C201" t="n">
         <v>-2.655</v>
@@ -5149,7 +5149,7 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6">
@@ -5165,7 +5165,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8">
@@ -5173,7 +5173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
@@ -5205,7 +5205,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="13">
@@ -5234,7 +5234,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
         <v>10</v>
@@ -5250,10 +5250,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19">
@@ -5261,12 +5261,12 @@
         <v>6</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B20" t="s">
         <v>213</v>
@@ -5274,7 +5274,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
         <v>214</v>
@@ -5282,7 +5282,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B22" t="s">
         <v>13</v>
@@ -5293,12 +5293,12 @@
         <v>13</v>
       </c>
       <c r="B23" t="s">
-        <v>213</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B24" t="s">
         <v>13</v>
@@ -5306,18 +5306,18 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>215</v>
+        <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27">
@@ -5325,12 +5325,12 @@
         <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B28" t="s">
         <v>14</v>
@@ -5341,12 +5341,12 @@
         <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>10</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B30" t="s">
         <v>14</v>
@@ -5354,18 +5354,18 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B31" t="s">
         <v>14</v>
-      </c>
-      <c r="B31" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
+        <v>215</v>
+      </c>
+      <c r="B32" t="s">
         <v>14</v>
-      </c>
-      <c r="B32" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="33">
@@ -5373,7 +5373,7 @@
         <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="34">
@@ -5397,7 +5397,7 @@
         <v>15</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37">
@@ -5410,7 +5410,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B38" t="s">
         <v>16</v>
@@ -5458,7 +5458,7 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B44" t="s">
         <v>17</v>
@@ -5466,7 +5466,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B45" t="s">
         <v>17</v>
@@ -5514,7 +5514,7 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B51" t="s">
         <v>19</v>
@@ -5557,7 +5557,7 @@
         <v>21</v>
       </c>
       <c r="B56" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57">
@@ -5573,7 +5573,7 @@
         <v>21</v>
       </c>
       <c r="B58" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59">
@@ -5586,7 +5586,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B60" t="s">
         <v>22</v>
@@ -5605,15 +5605,15 @@
         <v>22</v>
       </c>
       <c r="B62" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B63" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64">
@@ -5621,55 +5621,55 @@
         <v>15</v>
       </c>
       <c r="B64" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B65" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B66" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B67" t="s">
-        <v>213</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B68" t="s">
-        <v>6</v>
+        <v>212</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B69" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B70" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="71">
@@ -5677,7 +5677,7 @@
         <v>8</v>
       </c>
       <c r="B71" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72">
@@ -5685,20 +5685,20 @@
         <v>6</v>
       </c>
       <c r="B72" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B74" t="s">
         <v>214</v>
@@ -5706,7 +5706,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B75" t="s">
         <v>214</v>
@@ -5714,7 +5714,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B76" t="s">
         <v>214</v>
@@ -5725,20 +5725,20 @@
         <v>6</v>
       </c>
       <c r="B77" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B78" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B79" t="s">
         <v>10</v>
@@ -5749,7 +5749,7 @@
         <v>6</v>
       </c>
       <c r="B80" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81">
@@ -5757,7 +5757,7 @@
         <v>10</v>
       </c>
       <c r="B81" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="82">
@@ -5765,7 +5765,7 @@
         <v>6</v>
       </c>
       <c r="B82" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="83">
@@ -5773,15 +5773,15 @@
         <v>15</v>
       </c>
       <c r="B83" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
+        <v>34</v>
+      </c>
+      <c r="B84" t="s">
         <v>35</v>
-      </c>
-      <c r="B84" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="85">
@@ -5789,7 +5789,7 @@
         <v>15</v>
       </c>
       <c r="B85" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="86">
@@ -5797,68 +5797,68 @@
         <v>215</v>
       </c>
       <c r="B86" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B87" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B88" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B89" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>215</v>
+        <v>15</v>
       </c>
       <c r="B90" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>15</v>
+        <v>214</v>
       </c>
       <c r="B91" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>15</v>
+        <v>215</v>
       </c>
       <c r="B92" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>214</v>
+        <v>15</v>
       </c>
       <c r="B93" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B94" t="s">
         <v>15</v>
@@ -5866,7 +5866,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B95" t="s">
         <v>8</v>
@@ -5874,18 +5874,18 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B96" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B97" t="s">
-        <v>215</v>
+        <v>35</v>
       </c>
     </row>
     <row r="98">
@@ -5893,36 +5893,36 @@
         <v>43</v>
       </c>
       <c r="B98" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B99" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>45</v>
+        <v>8</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>46</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="B101" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>8</v>
+        <v>215</v>
       </c>
       <c r="B102" t="s">
         <v>47</v>
@@ -5930,7 +5930,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B103" t="s">
         <v>47</v>
@@ -5938,18 +5938,18 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
+        <v>48</v>
+      </c>
+      <c r="B104" t="s">
         <v>215</v>
-      </c>
-      <c r="B104" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="B105" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
     </row>
     <row r="106">
@@ -5957,7 +5957,7 @@
         <v>49</v>
       </c>
       <c r="B106" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="107">
@@ -5986,26 +5986,26 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B111" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B112" t="s">
-        <v>36</v>
+        <v>8</v>
       </c>
     </row>
     <row r="113">
@@ -6013,12 +6013,12 @@
         <v>56</v>
       </c>
       <c r="B113" t="s">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B114" t="s">
         <v>57</v>
@@ -6029,71 +6029,71 @@
         <v>58</v>
       </c>
       <c r="B115" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="B116" t="s">
-        <v>60</v>
+        <v>215</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
+        <v>12</v>
+      </c>
+      <c r="B117" t="s">
         <v>61</v>
-      </c>
-      <c r="B117" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>11</v>
+        <v>215</v>
       </c>
       <c r="B118" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>215</v>
+        <v>15</v>
       </c>
       <c r="B119" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B120" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B121" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>215</v>
+        <v>15</v>
       </c>
       <c r="B122" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>15</v>
+        <v>215</v>
       </c>
       <c r="B123" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="124">
@@ -6101,12 +6101,12 @@
         <v>215</v>
       </c>
       <c r="B124" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B125" t="s">
         <v>76</v>
@@ -6114,10 +6114,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B126" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="127">
@@ -6125,7 +6125,7 @@
         <v>82</v>
       </c>
       <c r="B127" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="128">
@@ -6133,7 +6133,7 @@
         <v>215</v>
       </c>
       <c r="B128" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="129">
@@ -6141,12 +6141,12 @@
         <v>212</v>
       </c>
       <c r="B129" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B130" t="s">
         <v>15</v>
@@ -6154,7 +6154,7 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B131" t="s">
         <v>215</v>
@@ -6162,26 +6162,26 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="B132" t="s">
-        <v>94</v>
+        <v>215</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>213</v>
+        <v>13</v>
       </c>
       <c r="B133" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>99</v>
+        <v>213</v>
       </c>
       <c r="B134" t="s">
-        <v>215</v>
+        <v>104</v>
       </c>
     </row>
     <row r="135">
@@ -6194,10 +6194,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="137">
@@ -6210,23 +6210,23 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B138" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B139" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B140" t="s">
         <v>215</v>
@@ -6234,10 +6234,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="142">
